--- a/PAP.xlsx
+++ b/PAP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programmierung\CrazyAirport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE56184-6B14-400E-8B9F-FB313F677707}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C66ADB8-AE03-47BD-87FA-03008CE19BE1}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9660" xr2:uid="{CC5CC2DD-1C85-4C30-8C89-693555246B72}"/>
   </bookViews>
@@ -699,7 +699,7 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
